--- a/Code/Results/Cases/Case_3_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48826145309829</v>
+        <v>14.31873393947592</v>
       </c>
       <c r="C2">
-        <v>7.643568317913176</v>
+        <v>9.611492942817538</v>
       </c>
       <c r="D2">
-        <v>5.018694106180193</v>
+        <v>6.536905757858936</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.98789114605722</v>
+        <v>32.32046319661256</v>
       </c>
       <c r="G2">
-        <v>34.79612540206653</v>
+        <v>42.73410714287786</v>
       </c>
       <c r="H2">
-        <v>11.688433696807</v>
+        <v>17.73319707266647</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.44297161837185</v>
+        <v>10.38682455661647</v>
       </c>
       <c r="L2">
-        <v>6.955643518291001</v>
+        <v>10.89741573601087</v>
       </c>
       <c r="M2">
-        <v>10.82540686556928</v>
+        <v>15.55660638308549</v>
       </c>
       <c r="N2">
-        <v>14.20376650776215</v>
+        <v>21.5845414103029</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.6246832630872</v>
+        <v>14.12653896839585</v>
       </c>
       <c r="C3">
-        <v>7.551858245053696</v>
+        <v>9.583005021113378</v>
       </c>
       <c r="D3">
-        <v>4.986387249506595</v>
+        <v>6.522211327011335</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.44457872659688</v>
+        <v>32.30165554202107</v>
       </c>
       <c r="G3">
-        <v>34.00444534983602</v>
+        <v>42.68877798905005</v>
       </c>
       <c r="H3">
-        <v>11.65451721755093</v>
+        <v>17.767187583724</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.71638800823048</v>
+        <v>10.24211314113477</v>
       </c>
       <c r="L3">
-        <v>6.855414252405419</v>
+        <v>10.90538412394333</v>
       </c>
       <c r="M3">
-        <v>10.48592037290892</v>
+        <v>15.53429937721632</v>
       </c>
       <c r="N3">
-        <v>14.40602651891292</v>
+        <v>21.64466973591996</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.07289161810753</v>
+        <v>14.01075096291934</v>
       </c>
       <c r="C4">
-        <v>7.494895848837683</v>
+        <v>9.565115705045248</v>
       </c>
       <c r="D4">
-        <v>4.966123635517806</v>
+        <v>6.512943374121933</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.12501837181028</v>
+        <v>32.29754626704153</v>
       </c>
       <c r="G4">
-        <v>33.54035227999099</v>
+        <v>42.67183943703925</v>
       </c>
       <c r="H4">
-        <v>11.6408537254301</v>
+        <v>17.79085579552079</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.24602780605679</v>
+        <v>10.15469012177176</v>
       </c>
       <c r="L4">
-        <v>6.796705641500463</v>
+        <v>10.91189045553321</v>
       </c>
       <c r="M4">
-        <v>10.27760657386493</v>
+        <v>15.52331755685062</v>
       </c>
       <c r="N4">
-        <v>14.53371899215379</v>
+        <v>21.68345665681135</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.84279524191731</v>
+        <v>13.9641840296563</v>
       </c>
       <c r="C5">
-        <v>7.471521650303896</v>
+        <v>9.557726511238927</v>
       </c>
       <c r="D5">
-        <v>4.957762528038611</v>
+        <v>6.509105300022922</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.99839100136077</v>
+        <v>32.29774425180982</v>
       </c>
       <c r="G5">
-        <v>33.35684178247286</v>
+        <v>42.66767964896884</v>
       </c>
       <c r="H5">
-        <v>11.63703025086474</v>
+        <v>17.80120381347032</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.04824787982265</v>
+        <v>10.11946927674077</v>
       </c>
       <c r="L5">
-        <v>6.773502617898912</v>
+        <v>10.91494803535555</v>
       </c>
       <c r="M5">
-        <v>10.19286725581738</v>
+        <v>15.5195288890727</v>
       </c>
       <c r="N5">
-        <v>14.58664471225762</v>
+        <v>21.69973334880792</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.80427786043706</v>
+        <v>13.95649063921454</v>
       </c>
       <c r="C6">
-        <v>7.467630705098001</v>
+        <v>9.556493576901175</v>
       </c>
       <c r="D6">
-        <v>4.956368033573597</v>
+        <v>6.508464300434123</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.97758358111538</v>
+        <v>32.29789025900289</v>
       </c>
       <c r="G6">
-        <v>33.3267108883936</v>
+        <v>42.66715463610173</v>
       </c>
       <c r="H6">
-        <v>11.63649907549702</v>
+        <v>17.80296453844767</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.01503787053686</v>
+        <v>10.11364663267942</v>
       </c>
       <c r="L6">
-        <v>6.769693565466466</v>
+        <v>10.91548028779147</v>
       </c>
       <c r="M6">
-        <v>10.17880898418171</v>
+        <v>15.51894135133212</v>
       </c>
       <c r="N6">
-        <v>14.59548700906477</v>
+        <v>21.70246454053709</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.06980938693043</v>
+        <v>14.01012036675638</v>
       </c>
       <c r="C7">
-        <v>7.49458126681386</v>
+        <v>9.565016452156444</v>
       </c>
       <c r="D7">
-        <v>4.966011288727278</v>
+        <v>6.512891860189004</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.12329598906867</v>
+        <v>32.29754135355374</v>
       </c>
       <c r="G7">
-        <v>33.5378545813639</v>
+        <v>42.67177222827694</v>
       </c>
       <c r="H7">
-        <v>11.64079517193672</v>
+        <v>17.79099250674032</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.24338519996058</v>
+        <v>10.15421342325843</v>
       </c>
       <c r="L7">
-        <v>6.796389786489937</v>
+        <v>10.91193004596595</v>
       </c>
       <c r="M7">
-        <v>10.27646298173132</v>
+        <v>15.52326367712614</v>
       </c>
       <c r="N7">
-        <v>14.53442915126424</v>
+        <v>21.68367426276884</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.19506842214123</v>
+        <v>14.25204009932573</v>
       </c>
       <c r="C8">
-        <v>7.612083257084961</v>
+        <v>9.60175332839002</v>
       </c>
       <c r="D8">
-        <v>5.007645656894085</v>
+        <v>6.531890328173394</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.79768636911989</v>
+        <v>32.31243599358049</v>
       </c>
       <c r="G8">
-        <v>34.51863915588153</v>
+        <v>42.71621941458975</v>
       </c>
       <c r="H8">
-        <v>11.67521923969965</v>
+        <v>17.74433600039722</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.19746653900946</v>
+        <v>10.33665838587488</v>
       </c>
       <c r="L8">
-        <v>6.920502326264985</v>
+        <v>10.89982858617434</v>
       </c>
       <c r="M8">
-        <v>10.70839234341059</v>
+        <v>15.54835392458193</v>
       </c>
       <c r="N8">
-        <v>14.27278374749834</v>
+        <v>21.60488658811385</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.22613373147964</v>
+        <v>14.74141987697497</v>
       </c>
       <c r="C9">
-        <v>7.837267905724607</v>
+        <v>9.670604553523408</v>
       </c>
       <c r="D9">
-        <v>5.085733177876511</v>
+        <v>6.567180482520661</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.22832125735988</v>
+        <v>32.40052714484492</v>
       </c>
       <c r="G9">
-        <v>36.61256215060611</v>
+        <v>42.88956761564461</v>
       </c>
       <c r="H9">
-        <v>11.80204436891297</v>
+        <v>17.67506462765783</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.8770491472867</v>
+        <v>10.70378205435249</v>
       </c>
       <c r="L9">
-        <v>7.185920907365782</v>
+        <v>10.88888076171903</v>
       </c>
       <c r="M9">
-        <v>11.55173567955313</v>
+        <v>15.61890861984792</v>
       </c>
       <c r="N9">
-        <v>13.78711735334569</v>
+        <v>21.46515811287027</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.74331568622062</v>
+        <v>15.10653912482056</v>
       </c>
       <c r="C10">
-        <v>7.99950956532799</v>
+        <v>9.719201041489146</v>
       </c>
       <c r="D10">
-        <v>5.140710250824716</v>
+        <v>6.591887504132411</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.34099056388449</v>
+        <v>32.50088170085701</v>
       </c>
       <c r="G10">
-        <v>38.24948904833048</v>
+        <v>43.06899391496769</v>
       </c>
       <c r="H10">
-        <v>11.93478221999742</v>
+        <v>17.63774524768062</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.99620786030316</v>
+        <v>10.9765288607841</v>
       </c>
       <c r="L10">
-        <v>7.393736078082987</v>
+        <v>10.88859817289829</v>
       </c>
       <c r="M10">
-        <v>12.16348228851797</v>
+        <v>15.68348472393681</v>
       </c>
       <c r="N10">
-        <v>13.44652685715718</v>
+        <v>21.37143945130847</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.40013146051475</v>
+        <v>15.27310335618445</v>
       </c>
       <c r="C11">
-        <v>8.072642113792229</v>
+        <v>9.740867746437475</v>
       </c>
       <c r="D11">
-        <v>5.165152854288051</v>
+        <v>6.602857679845746</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.8596790494598</v>
+        <v>32.55419038669567</v>
       </c>
       <c r="G11">
-        <v>39.014468317058</v>
+        <v>43.16177628460586</v>
       </c>
       <c r="H11">
-        <v>12.0044798387239</v>
+        <v>17.62371951975951</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.48093245718251</v>
+        <v>11.10070512413915</v>
       </c>
       <c r="L11">
-        <v>7.490925403395096</v>
+        <v>10.89014594729746</v>
       </c>
       <c r="M11">
-        <v>12.4391017975734</v>
+        <v>15.71555997435977</v>
       </c>
       <c r="N11">
-        <v>13.29502447160401</v>
+        <v>21.33073152736873</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64412765918547</v>
+        <v>15.33618333735602</v>
       </c>
       <c r="C12">
-        <v>8.100241832292058</v>
+        <v>9.749008212097616</v>
       </c>
       <c r="D12">
-        <v>5.174323029804113</v>
+        <v>6.606972666767685</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.05783101770952</v>
+        <v>32.57546881456749</v>
       </c>
       <c r="G12">
-        <v>39.30699097444782</v>
+        <v>43.19849896485133</v>
       </c>
       <c r="H12">
-        <v>12.03227072826965</v>
+        <v>17.61883288343309</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.6610277244984</v>
+        <v>11.14769671375076</v>
       </c>
       <c r="L12">
-        <v>7.528099198091066</v>
+        <v>10.89097214834043</v>
       </c>
       <c r="M12">
-        <v>12.54302196321084</v>
+        <v>15.72808765842057</v>
       </c>
       <c r="N12">
-        <v>13.23814414480092</v>
+        <v>21.31559232728842</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.59178769154241</v>
+        <v>15.32259864774242</v>
       </c>
       <c r="C13">
-        <v>8.094301862082649</v>
+        <v>9.747257889838398</v>
       </c>
       <c r="D13">
-        <v>5.172351947723903</v>
+        <v>6.606088180794043</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.01507916179042</v>
+        <v>32.57083774044938</v>
       </c>
       <c r="G13">
-        <v>39.24386572012798</v>
+        <v>43.19051974382876</v>
       </c>
       <c r="H13">
-        <v>12.02622235648642</v>
+        <v>17.61986642079483</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.62239403457812</v>
+        <v>11.13757834279053</v>
       </c>
       <c r="L13">
-        <v>7.520076853145881</v>
+        <v>10.89078354946307</v>
       </c>
       <c r="M13">
-        <v>12.52066190292844</v>
+        <v>15.72537274163195</v>
       </c>
       <c r="N13">
-        <v>13.25037256699405</v>
+        <v>21.31884056241989</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.42029945560272</v>
+        <v>15.27829321802275</v>
       </c>
       <c r="C14">
-        <v>8.074914622776683</v>
+        <v>9.74153876053674</v>
       </c>
       <c r="D14">
-        <v>5.165909032099321</v>
+        <v>6.60319701024034</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.87594667601013</v>
+        <v>32.55591915762769</v>
       </c>
       <c r="G14">
-        <v>39.03847778895869</v>
+        <v>43.16476576010012</v>
       </c>
       <c r="H14">
-        <v>12.00673785982324</v>
+        <v>17.62330898251678</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.49581804511347</v>
+        <v>11.10457203582699</v>
       </c>
       <c r="L14">
-        <v>7.493976352585631</v>
+        <v>10.89020911343991</v>
       </c>
       <c r="M14">
-        <v>12.44766075505546</v>
+        <v>15.71658302868173</v>
       </c>
       <c r="N14">
-        <v>13.29033507861298</v>
+        <v>21.32948048935956</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.31464474940419</v>
+        <v>15.25115380010319</v>
       </c>
       <c r="C15">
-        <v>8.063027241007212</v>
+        <v>9.738027233475002</v>
       </c>
       <c r="D15">
-        <v>5.161951273035982</v>
+        <v>6.601420968302378</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.79094832275331</v>
+        <v>32.54692294828268</v>
       </c>
       <c r="G15">
-        <v>38.91303967548958</v>
+        <v>43.14919696840238</v>
       </c>
       <c r="H15">
-        <v>11.99498683230598</v>
+        <v>17.62547295240115</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.41783757367436</v>
+        <v>11.08434930555507</v>
       </c>
       <c r="L15">
-        <v>7.47803695326468</v>
+        <v>10.88988849151298</v>
       </c>
       <c r="M15">
-        <v>12.40288491237528</v>
+        <v>15.71124855089128</v>
       </c>
       <c r="N15">
-        <v>13.31487705801125</v>
+        <v>21.3360336718046</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.69972593048521</v>
+        <v>15.09565789280402</v>
       </c>
       <c r="C16">
-        <v>7.994716853231626</v>
+        <v>9.717776133621177</v>
       </c>
       <c r="D16">
-        <v>5.139101105622186</v>
+        <v>6.591165120360492</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.30733929198779</v>
+        <v>32.49755114984067</v>
       </c>
       <c r="G16">
-        <v>38.19989758463372</v>
+        <v>43.06315355757113</v>
       </c>
       <c r="H16">
-        <v>11.93041974555775</v>
+        <v>17.63872126774193</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.96404317428597</v>
+        <v>10.96841174956567</v>
       </c>
       <c r="L16">
-        <v>7.387436932980316</v>
+        <v>10.88853067451324</v>
       </c>
       <c r="M16">
-        <v>12.14541020767635</v>
+        <v>15.68144228671063</v>
       </c>
       <c r="N16">
-        <v>13.45649665556241</v>
+        <v>21.37413847784487</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.31399813257173</v>
+        <v>15.00034203376302</v>
       </c>
       <c r="C17">
-        <v>7.952639975686964</v>
+        <v>9.705239340750337</v>
       </c>
       <c r="D17">
-        <v>5.124935124776507</v>
+        <v>6.58480421057767</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.01381962843139</v>
+        <v>32.46921794640013</v>
       </c>
       <c r="G17">
-        <v>37.76755202982631</v>
+        <v>43.01321591028294</v>
       </c>
       <c r="H17">
-        <v>11.89323718267257</v>
+        <v>17.64760471861063</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.67944104318338</v>
+        <v>10.89728091661222</v>
       </c>
       <c r="L17">
-        <v>7.332528000062966</v>
+        <v>10.88812639605007</v>
       </c>
       <c r="M17">
-        <v>11.98672306048553</v>
+        <v>15.66384384664043</v>
       </c>
       <c r="N17">
-        <v>13.544252165808</v>
+        <v>21.39800702773067</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.08899327210914</v>
+        <v>14.94556669333458</v>
       </c>
       <c r="C18">
-        <v>7.928374978573134</v>
+        <v>9.697987144318262</v>
       </c>
       <c r="D18">
-        <v>5.116734136021775</v>
+        <v>6.581120275925782</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.84617758156325</v>
+        <v>32.45364279061948</v>
       </c>
       <c r="G18">
-        <v>37.52079619008716</v>
+        <v>42.98554472544286</v>
       </c>
       <c r="H18">
-        <v>11.87272398550522</v>
+        <v>17.65299200212469</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.51344689658393</v>
+        <v>10.85638065710971</v>
       </c>
       <c r="L18">
-        <v>7.301196185664621</v>
+        <v>10.88805171392378</v>
       </c>
       <c r="M18">
-        <v>11.89520267599841</v>
+        <v>15.65397618282943</v>
       </c>
       <c r="N18">
-        <v>13.59505013732171</v>
+        <v>21.41191684040531</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01226836237151</v>
+        <v>14.9270308252905</v>
       </c>
       <c r="C19">
-        <v>7.920148304956495</v>
+        <v>9.695524600043424</v>
       </c>
       <c r="D19">
-        <v>5.113948431499644</v>
+        <v>6.579868626829432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.78962218351722</v>
+        <v>32.44849347065183</v>
       </c>
       <c r="G19">
-        <v>37.43758108247972</v>
+        <v>42.97635683194736</v>
       </c>
       <c r="H19">
-        <v>11.86592676704602</v>
+        <v>17.65486373986162</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.45684800270621</v>
+        <v>10.84253606897937</v>
       </c>
       <c r="L19">
-        <v>7.290631128074245</v>
+        <v>10.88805356589268</v>
       </c>
       <c r="M19">
-        <v>11.86417514196443</v>
+        <v>15.65067906701611</v>
       </c>
       <c r="N19">
-        <v>13.6123051242573</v>
+        <v>21.41665762010938</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.35538445543342</v>
+        <v>15.01048407300067</v>
       </c>
       <c r="C20">
-        <v>7.957125687391176</v>
+        <v>9.70657819181889</v>
       </c>
       <c r="D20">
-        <v>5.126448642766293</v>
+        <v>6.585483962953072</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.04494340624332</v>
+        <v>32.47215947128124</v>
       </c>
       <c r="G20">
-        <v>37.8133781090628</v>
+        <v>43.01842313316658</v>
       </c>
       <c r="H20">
-        <v>11.89710453080075</v>
+        <v>17.64663031113351</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.70997498909023</v>
+        <v>10.90485197794453</v>
       </c>
       <c r="L20">
-        <v>7.338347323903449</v>
+        <v>10.88815310210508</v>
       </c>
       <c r="M20">
-        <v>12.00364174310016</v>
+        <v>15.66569093844286</v>
       </c>
       <c r="N20">
-        <v>13.53487701028434</v>
+        <v>21.39544742677126</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.47079736446087</v>
+        <v>15.29130712628405</v>
       </c>
       <c r="C21">
-        <v>8.080611647700108</v>
+        <v>9.743220358723944</v>
       </c>
       <c r="D21">
-        <v>5.167803832407695</v>
+        <v>6.604047284229821</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.91676661369366</v>
+        <v>32.56027156362972</v>
       </c>
       <c r="G21">
-        <v>39.09872864852087</v>
+        <v>43.17228737679491</v>
       </c>
       <c r="H21">
-        <v>12.01242252256574</v>
+        <v>17.62228629361764</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.53308996550696</v>
+        <v>11.11426799675936</v>
       </c>
       <c r="L21">
-        <v>7.501632736053125</v>
+        <v>10.89037133138978</v>
       </c>
       <c r="M21">
-        <v>12.46911568056456</v>
+        <v>15.71915448234691</v>
       </c>
       <c r="N21">
-        <v>13.27858383044757</v>
+        <v>21.32634780066597</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.1722765598035</v>
+        <v>15.47484707512854</v>
       </c>
       <c r="C22">
-        <v>8.160771284531174</v>
+        <v>9.766793214516415</v>
       </c>
       <c r="D22">
-        <v>5.194330288078989</v>
+        <v>6.615950895254612</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.49665019425423</v>
+        <v>32.62421519816034</v>
       </c>
       <c r="G22">
-        <v>39.9553183688592</v>
+        <v>43.28209328885013</v>
       </c>
       <c r="H22">
-        <v>12.09596497684612</v>
+        <v>17.60885102465737</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.05090478531679</v>
+        <v>11.25093087614567</v>
       </c>
       <c r="L22">
-        <v>7.610503321750644</v>
+        <v>10.89321999140395</v>
       </c>
       <c r="M22">
-        <v>12.77067821144155</v>
+        <v>15.75631618369553</v>
       </c>
       <c r="N22">
-        <v>13.11393937328261</v>
+        <v>21.28279560942334</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.80037580392653</v>
+        <v>15.37690781673465</v>
       </c>
       <c r="C23">
-        <v>8.118037248719792</v>
+        <v>9.754246561243528</v>
       </c>
       <c r="D23">
-        <v>5.180219911883115</v>
+        <v>6.609618786303119</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.18625008065548</v>
+        <v>32.5895090481387</v>
       </c>
       <c r="G23">
-        <v>39.49664926091753</v>
+        <v>43.22264788060075</v>
       </c>
       <c r="H23">
-        <v>12.05060934011121</v>
+        <v>17.61579516585322</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.77636292092213</v>
+        <v>11.17802470323742</v>
       </c>
       <c r="L23">
-        <v>7.552203328179166</v>
+        <v>10.89157195276062</v>
       </c>
       <c r="M23">
-        <v>12.60999050518251</v>
+        <v>15.7362814488635</v>
       </c>
       <c r="N23">
-        <v>13.20155232838182</v>
+        <v>21.30589333352702</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.33668381104374</v>
+        <v>15.00589878062505</v>
       </c>
       <c r="C24">
-        <v>7.955097929173012</v>
+        <v>9.705973036199595</v>
       </c>
       <c r="D24">
-        <v>5.125764557814513</v>
+        <v>6.585176730838331</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.03086889519331</v>
+        <v>32.47082738313128</v>
       </c>
       <c r="G24">
-        <v>37.79265450878014</v>
+        <v>43.01606571110855</v>
       </c>
       <c r="H24">
-        <v>11.89535341736051</v>
+        <v>17.6470699683409</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.69617798575162</v>
+        <v>10.9014291168845</v>
       </c>
       <c r="L24">
-        <v>7.335715671444447</v>
+        <v>10.88814053687488</v>
       </c>
       <c r="M24">
-        <v>11.9959937016991</v>
+        <v>15.66485508927535</v>
       </c>
       <c r="N24">
-        <v>13.53911443959798</v>
+        <v>21.39660403832161</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.69532792889264</v>
+        <v>14.60779449233624</v>
       </c>
       <c r="C25">
-        <v>7.776914432016876</v>
+        <v>9.652324469180824</v>
       </c>
       <c r="D25">
-        <v>5.065012510948859</v>
+        <v>6.557846314085268</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.83016785689476</v>
+        <v>32.37041424876036</v>
       </c>
       <c r="G25">
-        <v>36.02839859218485</v>
+        <v>42.83348513382636</v>
       </c>
       <c r="H25">
-        <v>11.7610319267008</v>
+        <v>17.69142222004151</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.443000607574</v>
+        <v>10.60374229106418</v>
       </c>
       <c r="L25">
-        <v>7.111821703918118</v>
+        <v>10.89047682678637</v>
       </c>
       <c r="M25">
-        <v>11.32460116557321</v>
+        <v>15.59756259197177</v>
       </c>
       <c r="N25">
-        <v>13.91562124658774</v>
+        <v>21.50138367764941</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.31873393947592</v>
+        <v>14.48826145309829</v>
       </c>
       <c r="C2">
-        <v>9.611492942817538</v>
+        <v>7.643568317913164</v>
       </c>
       <c r="D2">
-        <v>6.536905757858936</v>
+        <v>5.018694106180521</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.32046319661256</v>
+        <v>24.98789114605714</v>
       </c>
       <c r="G2">
-        <v>42.73410714287786</v>
+        <v>34.79612540206663</v>
       </c>
       <c r="H2">
-        <v>17.73319707266647</v>
+        <v>11.68843369680696</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.38682455661647</v>
+        <v>11.44297161837181</v>
       </c>
       <c r="L2">
-        <v>10.89741573601087</v>
+        <v>6.95564351829098</v>
       </c>
       <c r="M2">
-        <v>15.55660638308549</v>
+        <v>10.82540686556928</v>
       </c>
       <c r="N2">
-        <v>21.5845414103029</v>
+        <v>14.20376650776212</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12653896839585</v>
+        <v>13.62468326308719</v>
       </c>
       <c r="C3">
-        <v>9.583005021113378</v>
+        <v>7.551858245053832</v>
       </c>
       <c r="D3">
-        <v>6.522211327011335</v>
+        <v>4.986387249506395</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.30165554202107</v>
+        <v>24.44457872659697</v>
       </c>
       <c r="G3">
-        <v>42.68877798905005</v>
+        <v>34.0044453498359</v>
       </c>
       <c r="H3">
-        <v>17.767187583724</v>
+        <v>11.65451721755104</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.24211314113477</v>
+        <v>10.71638800823048</v>
       </c>
       <c r="L3">
-        <v>10.90538412394333</v>
+        <v>6.855414252405395</v>
       </c>
       <c r="M3">
-        <v>15.53429937721632</v>
+        <v>10.48592037290894</v>
       </c>
       <c r="N3">
-        <v>21.64466973591996</v>
+        <v>14.40602651891292</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.01075096291934</v>
+        <v>13.07289161810753</v>
       </c>
       <c r="C4">
-        <v>9.565115705045248</v>
+        <v>7.494895848837555</v>
       </c>
       <c r="D4">
-        <v>6.512943374121933</v>
+        <v>4.96612363551786</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.29754626704153</v>
+        <v>24.12501837181033</v>
       </c>
       <c r="G4">
-        <v>42.67183943703925</v>
+        <v>33.54035227999108</v>
       </c>
       <c r="H4">
-        <v>17.79085579552079</v>
+        <v>11.64085372543012</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.15469012177176</v>
+        <v>10.24602780605677</v>
       </c>
       <c r="L4">
-        <v>10.91189045553321</v>
+        <v>6.79670564150052</v>
       </c>
       <c r="M4">
-        <v>15.52331755685062</v>
+        <v>10.27760657386497</v>
       </c>
       <c r="N4">
-        <v>21.68345665681135</v>
+        <v>14.5337189921538</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.9641840296563</v>
+        <v>12.84279524191732</v>
       </c>
       <c r="C5">
-        <v>9.557726511238927</v>
+        <v>7.47152165030389</v>
       </c>
       <c r="D5">
-        <v>6.509105300022922</v>
+        <v>4.95776252803848</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.29774425180982</v>
+        <v>23.99839100136074</v>
       </c>
       <c r="G5">
-        <v>42.66767964896884</v>
+        <v>33.35684178247266</v>
       </c>
       <c r="H5">
-        <v>17.80120381347032</v>
+        <v>11.63703025086471</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.11946927674077</v>
+        <v>10.04824787982272</v>
       </c>
       <c r="L5">
-        <v>10.91494803535555</v>
+        <v>6.773502617898932</v>
       </c>
       <c r="M5">
-        <v>15.5195288890727</v>
+        <v>10.19286725581734</v>
       </c>
       <c r="N5">
-        <v>21.69973334880792</v>
+        <v>14.58664471225756</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.95649063921454</v>
+        <v>12.8042778604371</v>
       </c>
       <c r="C6">
-        <v>9.556493576901175</v>
+        <v>7.467630705098005</v>
       </c>
       <c r="D6">
-        <v>6.508464300434123</v>
+        <v>4.956368033573728</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.29789025900289</v>
+        <v>23.97758358111548</v>
       </c>
       <c r="G6">
-        <v>42.66715463610173</v>
+        <v>33.3267108883939</v>
       </c>
       <c r="H6">
-        <v>17.80296453844767</v>
+        <v>11.63649907549707</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.11364663267942</v>
+        <v>10.01503787053683</v>
       </c>
       <c r="L6">
-        <v>10.91548028779147</v>
+        <v>6.769693565466456</v>
       </c>
       <c r="M6">
-        <v>15.51894135133212</v>
+        <v>10.17880898418174</v>
       </c>
       <c r="N6">
-        <v>21.70246454053709</v>
+        <v>14.59548700906483</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.01012036675638</v>
+        <v>13.06980938693043</v>
       </c>
       <c r="C7">
-        <v>9.565016452156444</v>
+        <v>7.494581266814117</v>
       </c>
       <c r="D7">
-        <v>6.512891860189004</v>
+        <v>4.966011288727545</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.29754135355374</v>
+        <v>24.12329598906867</v>
       </c>
       <c r="G7">
-        <v>42.67177222827694</v>
+        <v>33.53785458136393</v>
       </c>
       <c r="H7">
-        <v>17.79099250674032</v>
+        <v>11.64079517193682</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.15421342325843</v>
+        <v>10.24338519996055</v>
       </c>
       <c r="L7">
-        <v>10.91193004596595</v>
+        <v>6.796389786489966</v>
       </c>
       <c r="M7">
-        <v>15.52326367712614</v>
+        <v>10.27646298173136</v>
       </c>
       <c r="N7">
-        <v>21.68367426276884</v>
+        <v>14.53442915126431</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.25204009932573</v>
+        <v>14.19506842214124</v>
       </c>
       <c r="C8">
-        <v>9.60175332839002</v>
+        <v>7.612083257084963</v>
       </c>
       <c r="D8">
-        <v>6.531890328173394</v>
+        <v>5.00764565689428</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.31243599358049</v>
+        <v>24.79768636911983</v>
       </c>
       <c r="G8">
-        <v>42.71621941458975</v>
+        <v>34.51863915588151</v>
       </c>
       <c r="H8">
-        <v>17.74433600039722</v>
+        <v>11.67521923969965</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.33665838587488</v>
+        <v>11.1974665390095</v>
       </c>
       <c r="L8">
-        <v>10.89982858617434</v>
+        <v>6.920502326264979</v>
       </c>
       <c r="M8">
-        <v>15.54835392458193</v>
+        <v>10.70839234341055</v>
       </c>
       <c r="N8">
-        <v>21.60488658811385</v>
+        <v>14.27278374749834</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.74141987697497</v>
+        <v>16.22613373147963</v>
       </c>
       <c r="C9">
-        <v>9.670604553523408</v>
+        <v>7.837267905724488</v>
       </c>
       <c r="D9">
-        <v>6.567180482520661</v>
+        <v>5.085733177876571</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.40052714484492</v>
+        <v>26.22832125735988</v>
       </c>
       <c r="G9">
-        <v>42.88956761564461</v>
+        <v>36.61256215060619</v>
       </c>
       <c r="H9">
-        <v>17.67506462765783</v>
+        <v>11.80204436891297</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.70378205435249</v>
+        <v>12.87704914728668</v>
       </c>
       <c r="L9">
-        <v>10.88888076171903</v>
+        <v>7.185920907365823</v>
       </c>
       <c r="M9">
-        <v>15.61890861984792</v>
+        <v>11.55173567955313</v>
       </c>
       <c r="N9">
-        <v>21.46515811287027</v>
+        <v>13.78711735334572</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.10653912482056</v>
+        <v>17.74331568622066</v>
       </c>
       <c r="C10">
-        <v>9.719201041489146</v>
+        <v>7.99950956532799</v>
       </c>
       <c r="D10">
-        <v>6.591887504132411</v>
+        <v>5.140710250824598</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.50088170085701</v>
+        <v>27.34099056388443</v>
       </c>
       <c r="G10">
-        <v>43.06899391496769</v>
+        <v>38.2494890483303</v>
       </c>
       <c r="H10">
-        <v>17.63774524768062</v>
+        <v>11.93478221999739</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.9765288607841</v>
+        <v>13.99620786030318</v>
       </c>
       <c r="L10">
-        <v>10.88859817289829</v>
+        <v>7.393736078082984</v>
       </c>
       <c r="M10">
-        <v>15.68348472393681</v>
+        <v>12.16348228851796</v>
       </c>
       <c r="N10">
-        <v>21.37143945130847</v>
+        <v>13.44652685715708</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.27310335618445</v>
+        <v>18.40013146051475</v>
       </c>
       <c r="C11">
-        <v>9.740867746437475</v>
+        <v>8.072642113792099</v>
       </c>
       <c r="D11">
-        <v>6.602857679845746</v>
+        <v>5.165152854288362</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.55419038669567</v>
+        <v>27.8596790494597</v>
       </c>
       <c r="G11">
-        <v>43.16177628460586</v>
+        <v>39.01446831705803</v>
       </c>
       <c r="H11">
-        <v>17.62371951975951</v>
+        <v>12.00447983872387</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.10070512413915</v>
+        <v>14.4809324571825</v>
       </c>
       <c r="L11">
-        <v>10.89014594729746</v>
+        <v>7.490925403395137</v>
       </c>
       <c r="M11">
-        <v>15.71555997435977</v>
+        <v>12.43910179757342</v>
       </c>
       <c r="N11">
-        <v>21.33073152736873</v>
+        <v>13.29502447160399</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.33618333735602</v>
+        <v>18.64412765918543</v>
       </c>
       <c r="C12">
-        <v>9.749008212097616</v>
+        <v>8.100241832292046</v>
       </c>
       <c r="D12">
-        <v>6.606972666767685</v>
+        <v>5.174323029804238</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.57546881456749</v>
+        <v>28.05783101770959</v>
       </c>
       <c r="G12">
-        <v>43.19849896485133</v>
+        <v>39.30699097444796</v>
       </c>
       <c r="H12">
-        <v>17.61883288343309</v>
+        <v>12.03227072826976</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.14769671375076</v>
+        <v>14.66102772449835</v>
       </c>
       <c r="L12">
-        <v>10.89097214834043</v>
+        <v>7.528099198091071</v>
       </c>
       <c r="M12">
-        <v>15.72808765842057</v>
+        <v>12.54302196321082</v>
       </c>
       <c r="N12">
-        <v>21.31559232728842</v>
+        <v>13.23814414480108</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.32259864774242</v>
+        <v>18.59178769154238</v>
       </c>
       <c r="C13">
-        <v>9.747257889838398</v>
+        <v>8.094301862082638</v>
       </c>
       <c r="D13">
-        <v>6.606088180794043</v>
+        <v>5.172351947723829</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.57083774044938</v>
+        <v>28.01507916179047</v>
       </c>
       <c r="G13">
-        <v>43.19051974382876</v>
+        <v>39.24386572012805</v>
       </c>
       <c r="H13">
-        <v>17.61986642079483</v>
+        <v>12.02622235648645</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.13757834279053</v>
+        <v>14.62239403457806</v>
       </c>
       <c r="L13">
-        <v>10.89078354946307</v>
+        <v>7.520076853145899</v>
       </c>
       <c r="M13">
-        <v>15.72537274163195</v>
+        <v>12.52066190292846</v>
       </c>
       <c r="N13">
-        <v>21.31884056241989</v>
+        <v>13.25037256699408</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.27829321802275</v>
+        <v>18.42029945560276</v>
       </c>
       <c r="C14">
-        <v>9.74153876053674</v>
+        <v>8.074914622776673</v>
       </c>
       <c r="D14">
-        <v>6.60319701024034</v>
+        <v>5.165909032099127</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.55591915762769</v>
+        <v>27.87594667601014</v>
       </c>
       <c r="G14">
-        <v>43.16476576010012</v>
+        <v>39.03847778895872</v>
       </c>
       <c r="H14">
-        <v>17.62330898251678</v>
+        <v>12.00673785982322</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.10457203582699</v>
+        <v>14.4958180451135</v>
       </c>
       <c r="L14">
-        <v>10.89020911343991</v>
+        <v>7.493976352585611</v>
       </c>
       <c r="M14">
-        <v>15.71658302868173</v>
+        <v>12.44766075505543</v>
       </c>
       <c r="N14">
-        <v>21.32948048935956</v>
+        <v>13.29033507861296</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.25115380010319</v>
+        <v>18.31464474940414</v>
       </c>
       <c r="C15">
-        <v>9.738027233475002</v>
+        <v>8.063027241007601</v>
       </c>
       <c r="D15">
-        <v>6.601420968302378</v>
+        <v>5.161951273036105</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.54692294828268</v>
+        <v>27.79094832275329</v>
       </c>
       <c r="G15">
-        <v>43.14919696840238</v>
+        <v>38.91303967548951</v>
       </c>
       <c r="H15">
-        <v>17.62547295240115</v>
+        <v>11.99498683230602</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.08434930555507</v>
+        <v>14.41783757367435</v>
       </c>
       <c r="L15">
-        <v>10.88988849151298</v>
+        <v>7.478036953264679</v>
       </c>
       <c r="M15">
-        <v>15.71124855089128</v>
+        <v>12.4028849123753</v>
       </c>
       <c r="N15">
-        <v>21.3360336718046</v>
+        <v>13.31487705801127</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.09565789280402</v>
+        <v>17.69972593048519</v>
       </c>
       <c r="C16">
-        <v>9.717776133621177</v>
+        <v>7.99471685323176</v>
       </c>
       <c r="D16">
-        <v>6.591165120360492</v>
+        <v>5.139101105622253</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.49755114984067</v>
+        <v>27.30733929198778</v>
       </c>
       <c r="G16">
-        <v>43.06315355757113</v>
+        <v>38.1998975846338</v>
       </c>
       <c r="H16">
-        <v>17.63872126774193</v>
+        <v>11.93041974555771</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.96841174956567</v>
+        <v>13.96404317428596</v>
       </c>
       <c r="L16">
-        <v>10.88853067451324</v>
+        <v>7.387436932980235</v>
       </c>
       <c r="M16">
-        <v>15.68144228671063</v>
+        <v>12.14541020767633</v>
       </c>
       <c r="N16">
-        <v>21.37413847784487</v>
+        <v>13.45649665556241</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00034203376302</v>
+        <v>17.31399813257179</v>
       </c>
       <c r="C17">
-        <v>9.705239340750337</v>
+        <v>7.952639975686584</v>
       </c>
       <c r="D17">
-        <v>6.58480421057767</v>
+        <v>5.124935124776516</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.46921794640013</v>
+        <v>27.01381962843142</v>
       </c>
       <c r="G17">
-        <v>43.01321591028294</v>
+        <v>37.76755202982632</v>
       </c>
       <c r="H17">
-        <v>17.64760471861063</v>
+        <v>11.89323718267257</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.89728091661222</v>
+        <v>13.67944104318338</v>
       </c>
       <c r="L17">
-        <v>10.88812639605007</v>
+        <v>7.332528000062971</v>
       </c>
       <c r="M17">
-        <v>15.66384384664043</v>
+        <v>11.98672306048549</v>
       </c>
       <c r="N17">
-        <v>21.39800702773067</v>
+        <v>13.544252165808</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.94556669333458</v>
+        <v>17.08899327210917</v>
       </c>
       <c r="C18">
-        <v>9.697987144318262</v>
+        <v>7.928374978573006</v>
       </c>
       <c r="D18">
-        <v>6.581120275925782</v>
+        <v>5.11673413602203</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.45364279061948</v>
+        <v>26.84617758156324</v>
       </c>
       <c r="G18">
-        <v>42.98554472544286</v>
+        <v>37.5207961900873</v>
       </c>
       <c r="H18">
-        <v>17.65299200212469</v>
+        <v>11.87272398550522</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.85638065710971</v>
+        <v>13.51344689658395</v>
       </c>
       <c r="L18">
-        <v>10.88805171392378</v>
+        <v>7.301196185664574</v>
       </c>
       <c r="M18">
-        <v>15.65397618282943</v>
+        <v>11.89520267599839</v>
       </c>
       <c r="N18">
-        <v>21.41191684040531</v>
+        <v>13.59505013732174</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.9270308252905</v>
+        <v>17.01226836237155</v>
       </c>
       <c r="C19">
-        <v>9.695524600043424</v>
+        <v>7.920148304956243</v>
       </c>
       <c r="D19">
-        <v>6.579868626829432</v>
+        <v>5.113948431499527</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.44849347065183</v>
+        <v>26.78962218351712</v>
       </c>
       <c r="G19">
-        <v>42.97635683194736</v>
+        <v>37.43758108247947</v>
       </c>
       <c r="H19">
-        <v>17.65486373986162</v>
+        <v>11.86592676704598</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.84253606897937</v>
+        <v>13.45684800270626</v>
       </c>
       <c r="L19">
-        <v>10.88805356589268</v>
+        <v>7.290631128074261</v>
       </c>
       <c r="M19">
-        <v>15.65067906701611</v>
+        <v>11.8641751419644</v>
       </c>
       <c r="N19">
-        <v>21.41665762010938</v>
+        <v>13.61230512425717</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.01048407300067</v>
+        <v>17.35538445543344</v>
       </c>
       <c r="C20">
-        <v>9.70657819181889</v>
+        <v>7.957125687391041</v>
       </c>
       <c r="D20">
-        <v>6.585483962953072</v>
+        <v>5.126448642766408</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.47215947128124</v>
+        <v>27.04494340624333</v>
       </c>
       <c r="G20">
-        <v>43.01842313316658</v>
+        <v>37.81337810906293</v>
       </c>
       <c r="H20">
-        <v>17.64663031113351</v>
+        <v>11.89710453080076</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.90485197794453</v>
+        <v>13.70997498909023</v>
       </c>
       <c r="L20">
-        <v>10.88815310210508</v>
+        <v>7.33834732390343</v>
       </c>
       <c r="M20">
-        <v>15.66569093844286</v>
+        <v>12.00364174310017</v>
       </c>
       <c r="N20">
-        <v>21.39544742677126</v>
+        <v>13.53487701028441</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.29130712628405</v>
+        <v>18.47079736446089</v>
       </c>
       <c r="C21">
-        <v>9.743220358723944</v>
+        <v>8.08061164770011</v>
       </c>
       <c r="D21">
-        <v>6.604047284229821</v>
+        <v>5.167803832407752</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.56027156362972</v>
+        <v>27.91676661369364</v>
       </c>
       <c r="G21">
-        <v>43.17228737679491</v>
+        <v>39.09872864852083</v>
       </c>
       <c r="H21">
-        <v>17.62228629361764</v>
+        <v>12.01242252256574</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.11426799675936</v>
+        <v>14.53308996550699</v>
       </c>
       <c r="L21">
-        <v>10.89037133138978</v>
+        <v>7.501632736053086</v>
       </c>
       <c r="M21">
-        <v>15.71915448234691</v>
+        <v>12.46911568056455</v>
       </c>
       <c r="N21">
-        <v>21.32634780066597</v>
+        <v>13.27858383044754</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.47484707512854</v>
+        <v>19.17227655980354</v>
       </c>
       <c r="C22">
-        <v>9.766793214516415</v>
+        <v>8.16077128453103</v>
       </c>
       <c r="D22">
-        <v>6.615950895254612</v>
+        <v>5.194330288078993</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.62421519816034</v>
+        <v>28.49665019425422</v>
       </c>
       <c r="G22">
-        <v>43.28209328885013</v>
+        <v>39.95531836885915</v>
       </c>
       <c r="H22">
-        <v>17.60885102465737</v>
+        <v>12.09596497684615</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.25093087614567</v>
+        <v>15.05090478531681</v>
       </c>
       <c r="L22">
-        <v>10.89321999140395</v>
+        <v>7.610503321750619</v>
       </c>
       <c r="M22">
-        <v>15.75631618369553</v>
+        <v>12.77067821144153</v>
       </c>
       <c r="N22">
-        <v>21.28279560942334</v>
+        <v>13.11393937328264</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.37690781673465</v>
+        <v>18.80037580392653</v>
       </c>
       <c r="C23">
-        <v>9.754246561243528</v>
+        <v>8.118037248719933</v>
       </c>
       <c r="D23">
-        <v>6.609618786303119</v>
+        <v>5.180219911883185</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.5895090481387</v>
+        <v>28.18625008065536</v>
       </c>
       <c r="G23">
-        <v>43.22264788060075</v>
+        <v>39.4966492609174</v>
       </c>
       <c r="H23">
-        <v>17.61579516585322</v>
+        <v>12.05060934011113</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.17802470323742</v>
+        <v>14.77636292092219</v>
       </c>
       <c r="L23">
-        <v>10.89157195276062</v>
+        <v>7.552203328179215</v>
       </c>
       <c r="M23">
-        <v>15.7362814488635</v>
+        <v>12.60999050518252</v>
       </c>
       <c r="N23">
-        <v>21.30589333352702</v>
+        <v>13.20155232838169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.00589878062505</v>
+        <v>17.33668381104375</v>
       </c>
       <c r="C24">
-        <v>9.705973036199595</v>
+        <v>7.955097929173129</v>
       </c>
       <c r="D24">
-        <v>6.585176730838331</v>
+        <v>5.125764557814571</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.47082738313128</v>
+        <v>27.03086889519324</v>
       </c>
       <c r="G24">
-        <v>43.01606571110855</v>
+        <v>37.79265450878002</v>
       </c>
       <c r="H24">
-        <v>17.6470699683409</v>
+        <v>11.89535341736047</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.9014291168845</v>
+        <v>13.69617798575165</v>
       </c>
       <c r="L24">
-        <v>10.88814053687488</v>
+        <v>7.335715671444475</v>
       </c>
       <c r="M24">
-        <v>15.66485508927535</v>
+        <v>11.99599370169911</v>
       </c>
       <c r="N24">
-        <v>21.39660403832161</v>
+        <v>13.53911443959792</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60779449233624</v>
+        <v>15.69532792889264</v>
       </c>
       <c r="C25">
-        <v>9.652324469180824</v>
+        <v>7.776914432017145</v>
       </c>
       <c r="D25">
-        <v>6.557846314085268</v>
+        <v>5.065012510948915</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.37041424876036</v>
+        <v>25.83016785689479</v>
       </c>
       <c r="G25">
-        <v>42.83348513382636</v>
+        <v>36.02839859218493</v>
       </c>
       <c r="H25">
-        <v>17.69142222004151</v>
+        <v>11.76103192670084</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.60374229106418</v>
+        <v>12.443000607574</v>
       </c>
       <c r="L25">
-        <v>10.89047682678637</v>
+        <v>7.111821703918118</v>
       </c>
       <c r="M25">
-        <v>15.59756259197177</v>
+        <v>11.32460116557321</v>
       </c>
       <c r="N25">
-        <v>21.50138367764941</v>
+        <v>13.91562124658783</v>
       </c>
       <c r="O25">
         <v>0</v>
